--- a/Ordering System/order home/Pro rate.xlsx
+++ b/Ordering System/order home/Pro rate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>BMAN</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Red Potato</t>
+  </si>
+  <si>
+    <t>potato red</t>
   </si>
 </sst>
 </file>
@@ -429,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BE5"/>
+  <dimension ref="A2:BE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AI14" sqref="AI14"/>
+    <sheetView tabSelected="1" topLeftCell="AM2" workbookViewId="0">
+      <selection activeCell="AF8" sqref="AF8:BE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
@@ -974,6 +977,220 @@
       <c r="AB5">
         <f>SUM(B5:AA5)</f>
         <v>240</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" ref="AD4:AD8" si="1">AC5/AB5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AB6">
+        <f t="shared" ref="AB6:AB8" si="2">SUM(B6:AA6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AB7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>10</v>
+      </c>
+      <c r="V8">
+        <v>10</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>10</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC8">
+        <v>40</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF8">
+        <f>MROUND((B8*$AD$8),10)</f>
+        <v>10</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" ref="AG8:AN8" si="3">MROUND((C8*$AD$8),10)</f>
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" ref="AO8" si="4">MROUND((K8*$AD$8),10)</f>
+        <v>10</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" ref="AP8" si="5">MROUND((L8*$AD$8),10)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" ref="AQ8" si="6">MROUND((M8*$AD$8),10)</f>
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" ref="AR8" si="7">MROUND((N8*$AD$8),10)</f>
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" ref="AS8" si="8">MROUND((O8*$AD$8),10)</f>
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" ref="AT8" si="9">MROUND((P8*$AD$8),10)</f>
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" ref="AU8:AV8" si="10">MROUND((Q8*$AD$8),10)</f>
+        <v>10</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" ref="AW8" si="11">MROUND((S8*$AD$8),10)</f>
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" ref="AX8" si="12">MROUND((T8*$AD$8),10)</f>
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" ref="AY8" si="13">MROUND((U8*$AD$8),10)</f>
+        <v>10</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" ref="AZ8" si="14">MROUND((V8*$AD$8),10)</f>
+        <v>10</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" ref="BA8" si="15">MROUND((W8*$AD$8),10)</f>
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <f t="shared" ref="BB8" si="16">MROUND((X8*$AD$8),10)</f>
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <f t="shared" ref="BC8:BD8" si="17">MROUND((Y8*$AD$8),10)</f>
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <f t="shared" ref="BE8" si="18">MROUND((AA8*$AD$8),10)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Ordering System/order home/Pro rate.xlsx
+++ b/Ordering System/order home/Pro rate.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>BMAN</t>
   </si>
@@ -115,6 +117,69 @@
   </si>
   <si>
     <t>potato red</t>
+  </si>
+  <si>
+    <t>BANANA GREEN BIG FRUITS 12</t>
+  </si>
+  <si>
+    <t>ONION RED/INDIAN VEGETABLES   10</t>
+  </si>
+  <si>
+    <t>POTATO RED REGULAR (DHARNI) VEGETABLES   1</t>
+  </si>
+  <si>
+    <t>GINGER VEGETABLES   3</t>
+  </si>
+  <si>
+    <t>GARLIC VEGETABLES   3</t>
+  </si>
+  <si>
+    <t>BABY POTATO VEGETABLES   10</t>
+  </si>
+  <si>
+    <t>COCONUT WATER FRUITS   1</t>
+  </si>
+  <si>
+    <t>RED POTATO VEGETABLES   10</t>
+  </si>
+  <si>
+    <t>TAMA VEGETABLES   1</t>
+  </si>
+  <si>
+    <t>POTATO RED (BIG) VEGETABLES   10</t>
+  </si>
+  <si>
+    <t>I.L.D ROUND RED POTATO (D) I.L.D 1</t>
+  </si>
+  <si>
+    <t>RED POTATO VEGETABLES 10</t>
+  </si>
+  <si>
+    <t>GINGER VEGETABLES 3</t>
+  </si>
+  <si>
+    <t>GARLIC VEGETABLES 3</t>
+  </si>
+  <si>
+    <t>SWEET POTATO VEGETABLES 5</t>
+  </si>
+  <si>
+    <t>LAPSI VEGETABLES 2</t>
+  </si>
+  <si>
+    <t>TAMA VEGETABLES 1</t>
+  </si>
+  <si>
+    <t>TORUL BIG VEGETABLES 5</t>
+  </si>
+  <si>
+    <t>COCONUT WATER FRUITS 1</t>
+  </si>
+  <si>
+    <t>BABY POTATO VEGETABLES 10</t>
+  </si>
+  <si>
+    <t>POTATO RED (BIG) VEGETABLES 10</t>
   </si>
 </sst>
 </file>
@@ -130,12 +195,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,8 +221,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BE8"/>
+  <dimension ref="A2:BE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM2" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8:BE8"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AP3" sqref="AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,6 +890,7 @@
         <v>0</v>
       </c>
       <c r="AF4">
+        <f t="shared" ref="AF4:AF14" si="1">MROUND((B4*$AD$3),10)</f>
         <v>0</v>
       </c>
       <c r="AG4">
@@ -979,19 +1056,31 @@
         <v>240</v>
       </c>
       <c r="AD5">
-        <f t="shared" ref="AD4:AD8" si="1">AC5/AB5</f>
-        <v>0</v>
+        <f t="shared" ref="AD5:AD14" si="2">AC5/AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="AB6">
-        <f t="shared" ref="AB6:AB8" si="2">SUM(B6:AA6)</f>
+        <f t="shared" ref="AB6:AB14" si="3">SUM(B6:AA6)</f>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="AB7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1078,119 +1167,812 @@
         <v>10</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="AC8">
         <v>40</v>
       </c>
       <c r="AD8">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF8">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="AF8">
-        <f>MROUND((B8*$AD$8),10)</f>
-        <v>10</v>
-      </c>
-      <c r="AG8">
-        <f t="shared" ref="AG8:AN8" si="3">MROUND((C8*$AD$8),10)</f>
-        <v>0</v>
-      </c>
-      <c r="AH8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AB9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI8">
+      <c r="AD9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AB10">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AB11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AK8">
+      <c r="AD11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AB12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL8">
+      <c r="AD12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AB13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AM8">
+      <c r="AD13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>132</v>
+      </c>
+      <c r="G14">
+        <v>60</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>24</v>
+      </c>
+      <c r="J14">
+        <v>36</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>48</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>72</v>
+      </c>
+      <c r="U14">
+        <v>12</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>24</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>72</v>
+      </c>
+      <c r="AB14">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="AN8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <f t="shared" ref="AO8" si="4">MROUND((K8*$AD$8),10)</f>
-        <v>10</v>
-      </c>
-      <c r="AP8">
-        <f t="shared" ref="AP8" si="5">MROUND((L8*$AD$8),10)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <f t="shared" ref="AQ8" si="6">MROUND((M8*$AD$8),10)</f>
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <f t="shared" ref="AR8" si="7">MROUND((N8*$AD$8),10)</f>
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <f t="shared" ref="AS8" si="8">MROUND((O8*$AD$8),10)</f>
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <f t="shared" ref="AT8" si="9">MROUND((P8*$AD$8),10)</f>
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <f t="shared" ref="AU8:AV8" si="10">MROUND((Q8*$AD$8),10)</f>
-        <v>10</v>
-      </c>
-      <c r="AV8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <f t="shared" ref="AW8" si="11">MROUND((S8*$AD$8),10)</f>
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <f t="shared" ref="AX8" si="12">MROUND((T8*$AD$8),10)</f>
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <f t="shared" ref="AY8" si="13">MROUND((U8*$AD$8),10)</f>
-        <v>10</v>
-      </c>
-      <c r="AZ8">
-        <f t="shared" ref="AZ8" si="14">MROUND((V8*$AD$8),10)</f>
-        <v>10</v>
-      </c>
-      <c r="BA8">
-        <f t="shared" ref="BA8" si="15">MROUND((W8*$AD$8),10)</f>
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <f t="shared" ref="BB8" si="16">MROUND((X8*$AD$8),10)</f>
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <f t="shared" ref="BC8:BD8" si="17">MROUND((Y8*$AD$8),10)</f>
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <f t="shared" ref="BE8" si="18">MROUND((AA8*$AD$8),10)</f>
-        <v>10</v>
+        <v>552</v>
+      </c>
+      <c r="AC14">
+        <v>500</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="2"/>
+        <v>0.90579710144927539</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" ref="AF14:AI14" si="4">MROUND((B14*$AD$14),12)</f>
+        <v>12</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <f>MROUND((F14*$AD$14),12)</f>
+        <v>120</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" ref="AK14:BE14" si="5">MROUND((G14*$AD$14),12)</f>
+        <v>60</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="BB14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>12</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>24</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>60</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>12</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>36</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>12</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>48</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="2">
+        <v>72</v>
+      </c>
+      <c r="AY17" s="2">
+        <v>12</v>
+      </c>
+      <c r="AZ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="2">
+        <v>24</v>
+      </c>
+      <c r="BB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AA3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:AA3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>72</v>
+      </c>
+      <c r="G2">
+        <v>36</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>24</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>24</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>36</v>
+      </c>
+      <c r="U2">
+        <v>12</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>12</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.90579710144927539</v>
+      </c>
+      <c r="B3">
+        <f>B2*$A$3</f>
+        <v>10.869565217391305</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:O3" si="0">C2*$A$3</f>
+        <v>10.869565217391305</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>21.739130434782609</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>65.217391304347828</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>32.608695652173914</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>10.869565217391305</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>21.739130434782609</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>10.869565217391305</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>21.739130434782609</v>
+      </c>
+      <c r="P3">
+        <f>P2*$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3" si="1">Q2*$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3" si="2">R2*$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3" si="3">S2*$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3" si="4">T2*$A$3</f>
+        <v>32.608695652173914</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3" si="5">U2*$A$3</f>
+        <v>10.869565217391305</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3" si="6">V2*$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3" si="7">W2*$A$3</f>
+        <v>10.869565217391305</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3" si="8">X2*$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3" si="9">Y2*$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3" si="10">Z2*$A$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3" si="11">AA2*$A$3</f>
+        <v>32.608695652173914</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="O1:W11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="O4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="O5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="O6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="O7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="O8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="O9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
